--- a/xlsx/美国2000年人口普查_intext.xlsx
+++ b/xlsx/美国2000年人口普查_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="320">
   <si>
     <t>美国2000年人口普查</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国2000年人口普查</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -47,19 +47,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口調查局</t>
+    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -83,13 +80,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐裔美國人</t>
+    <t>欧裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>德國人</t>
+    <t>德国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E4%BA%BA</t>
@@ -119,13 +116,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%97%E9%83%A8</t>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -365,9 +359,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>内华达州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
   </si>
   <si>
@@ -455,31 +446,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓哥倫比亞特區</t>
+    <t>华盛顿哥伦比亚特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A6%AC%E9%87%8C%E4%BA%9E%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>北馬里亞納群島</t>
+    <t>北马里亚纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%9E%E8%90%A8%E6%91%A9%E4%BA%9A</t>
@@ -497,19 +488,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -521,31 +512,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>休士頓</t>
+    <t>休士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E</t>
   </si>
   <si>
-    <t>費城</t>
+    <t>费城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B3%B3%E5%87%B0%E5%9F%8E_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>鳳凰城 (亞利桑那州)</t>
+    <t>凤凰城 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (加利福尼亞州)</t>
+    <t>圣地牙哥 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>達拉斯</t>
+    <t>达拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%AE%89%E4%B8%9C%E5%B0%BC%E5%A5%A5</t>
@@ -563,19 +554,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖荷西 (加利福尼亞州)</t>
+    <t>圣荷西 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94_(%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E)</t>
@@ -587,49 +578,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83_(%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哥倫布 (俄亥俄州)</t>
+    <t>哥伦布 (俄亥俄州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E4%B8%81</t>
   </si>
   <si>
-    <t>奧斯丁</t>
+    <t>奥斯丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E7%9A%84%E6%91%A9</t>
   </si>
   <si>
-    <t>巴爾的摩</t>
+    <t>巴尔的摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E7%93%A6%E5%9F%BA</t>
   </si>
   <si>
-    <t>密爾瓦基</t>
+    <t>密尔瓦基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>非裔美國人</t>
+    <t>非裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -641,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86%E8%88%87%E9%A0%90%E7%AE%97%E5%B1%80</t>
   </si>
   <si>
-    <t>美國行政管理與預算局</t>
+    <t>美国行政管理与预算局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>拉丁裔美國人</t>
+    <t>拉丁裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%A3%AB%E8%92%82%E7%B4%A2%E4%BA%BA</t>
   </si>
   <si>
-    <t>麥士蒂索人</t>
+    <t>麦士蒂索人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%8B%89%E6%89%98%E4%BA%BA</t>
@@ -665,81 +656,72 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
+    <t>西班牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>德語</t>
+    <t>德语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A5%BF%E8%AA%9E</t>
   </si>
   <si>
-    <t>他加祿語</t>
+    <t>他加禄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>越南語</t>
+    <t>越南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AA%9E</t>
   </si>
   <si>
-    <t>俄語</t>
+    <t>俄语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
-    <t>德语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%96%E5%8A%A0%E7%A6%84%E8%AF%AD</t>
   </si>
   <si>
-    <t>他加禄语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
   </si>
   <si>
-    <t>越南语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9%E8%AF%AD</t>
   </si>
   <si>
@@ -749,15 +731,9 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E8%AF%AD</t>
   </si>
   <si>
-    <t>韩语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E8%AF%AD</t>
   </si>
   <si>
-    <t>俄语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%B0%E8%AF%AD</t>
   </si>
   <si>
@@ -773,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -815,13 +791,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
@@ -971,15 +947,12 @@
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>1990年美國人口普查</t>
+    <t>1990年美国人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>2010年美國人口普查</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/2020_United_States_Census</t>
   </si>
   <si>
@@ -987,9 +960,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Census_of_Agriculture</t>
@@ -1520,7 +1490,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>21</v>
@@ -1546,10 +1516,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -1575,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1604,10 +1574,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -1633,10 +1603,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>5</v>
@@ -1662,10 +1632,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -1691,10 +1661,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1720,10 +1690,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1749,10 +1719,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1778,10 +1748,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1807,10 +1777,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1836,10 +1806,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1865,10 +1835,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1894,10 +1864,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1923,10 +1893,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1952,10 +1922,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1981,10 +1951,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2010,10 +1980,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2039,10 +2009,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2068,10 +2038,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2097,10 +2067,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2126,10 +2096,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2155,10 +2125,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2184,10 +2154,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2213,10 +2183,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2242,10 +2212,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2271,10 +2241,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2300,10 +2270,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2329,10 +2299,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2358,10 +2328,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2387,10 +2357,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -2416,10 +2386,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2445,10 +2415,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2474,10 +2444,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2503,10 +2473,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2532,10 +2502,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2561,10 +2531,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2590,10 +2560,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2619,10 +2589,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2648,10 +2618,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2677,10 +2647,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2706,10 +2676,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2735,10 +2705,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2764,10 +2734,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2793,10 +2763,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2822,10 +2792,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2851,10 +2821,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2880,10 +2850,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2909,10 +2879,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2938,10 +2908,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2967,10 +2937,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2996,10 +2966,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3025,10 +2995,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3054,10 +3024,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3083,10 +3053,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3112,10 +3082,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3141,10 +3111,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3170,10 +3140,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3199,10 +3169,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3228,10 +3198,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3257,10 +3227,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3286,10 +3256,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3315,10 +3285,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3344,10 +3314,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3373,10 +3343,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3402,10 +3372,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3431,10 +3401,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3460,10 +3430,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3489,10 +3459,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3518,10 +3488,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3547,10 +3517,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3576,10 +3546,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3605,10 +3575,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3634,10 +3604,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3663,10 +3633,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3692,10 +3662,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3721,10 +3691,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3750,10 +3720,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3779,10 +3749,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3808,10 +3778,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3837,10 +3807,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3866,10 +3836,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3895,10 +3865,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3924,10 +3894,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3953,10 +3923,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3982,10 +3952,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4011,10 +3981,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4040,10 +4010,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4069,10 +4039,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4098,10 +4068,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4127,10 +4097,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4156,10 +4126,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4185,10 +4155,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4214,10 +4184,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4243,10 +4213,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4272,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -4301,10 +4271,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4330,10 +4300,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4359,10 +4329,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4388,10 +4358,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4417,10 +4387,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4446,10 +4416,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4475,10 +4445,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4504,10 +4474,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4533,10 +4503,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4562,10 +4532,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4591,10 +4561,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4620,10 +4590,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4649,10 +4619,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4678,10 +4648,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4707,10 +4677,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4736,10 +4706,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4765,10 +4735,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4794,10 +4764,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4823,10 +4793,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4852,10 +4822,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4881,10 +4851,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4910,10 +4880,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4939,10 +4909,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4968,10 +4938,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -4997,10 +4967,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5026,10 +4996,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5055,10 +5025,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5084,10 +5054,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -5113,10 +5083,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5142,10 +5112,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5171,10 +5141,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5200,10 +5170,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5229,10 +5199,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5258,10 +5228,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -5287,10 +5257,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5316,10 +5286,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5345,10 +5315,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>17</v>
@@ -5374,10 +5344,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5403,10 +5373,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5432,10 +5402,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5461,10 +5431,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5490,10 +5460,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5519,10 +5489,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5548,10 +5518,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5577,10 +5547,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5606,10 +5576,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5635,10 +5605,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5664,10 +5634,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5693,10 +5663,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5722,10 +5692,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5751,10 +5721,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5780,10 +5750,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5809,10 +5779,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5838,10 +5808,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5867,10 +5837,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5896,10 +5866,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -5925,10 +5895,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5954,10 +5924,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>16</v>
@@ -5983,10 +5953,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6012,10 +5982,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6041,10 +6011,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>10</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6070,10 +6040,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6099,10 +6069,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6128,10 +6098,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F165" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
